--- a/EC330/HW4/Grading/grades.xlsx
+++ b/EC330/HW4/Grading/grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="25200" windowHeight="11070"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="25200" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
   <si>
     <t>AdinHorovitz</t>
   </si>
@@ -71,9 +71,6 @@
     <t>AnnLane</t>
   </si>
   <si>
-    <t>AnuragMashruwala</t>
-  </si>
-  <si>
     <t>ArlynRodriguez</t>
   </si>
   <si>
@@ -423,6 +420,21 @@
   </si>
   <si>
     <t>Could be faster</t>
+  </si>
+  <si>
+    <t>More descriptive algorithm</t>
+  </si>
+  <si>
+    <t>You actually have to give an answer here</t>
+  </si>
+  <si>
+    <t>no algorithm</t>
+  </si>
+  <si>
+    <t>more details for algorithm needed</t>
+  </si>
+  <si>
+    <t>need better algorithm description</t>
   </si>
 </sst>
 </file>
@@ -740,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,28 +765,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
-      </c>
-      <c r="I1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,19 +797,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2">
         <f>SUM(B2,D2,F2)</f>
@@ -818,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">SUM(B3,D3,F3)</f>
+        <f t="shared" ref="H3:H65" si="0">SUM(B3,D3,F3)</f>
         <v>25</v>
       </c>
     </row>
@@ -851,13 +863,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -878,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -911,19 +923,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -938,19 +950,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -986,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -1003,60 +1015,156 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="H18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1066,15 +1174,36 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="H20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1084,24 +1213,60 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>135</v>
+      </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="H23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1111,15 +1276,42 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="H25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1129,54 +1321,144 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>136</v>
+      </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>136</v>
+      </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>130</v>
+      </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,7 +1772,7 @@
         <v>64</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H66:H121" si="1">SUM(B66,D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -1499,7 +1781,7 @@
         <v>65</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H122" si="1">SUM(B67,D67,F67)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1985,15 +2267,6 @@
         <v>119</v>
       </c>
       <c r="H121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="H122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/EC330/HW4/Grading/grades.xlsx
+++ b/EC330/HW4/Grading/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\Desktop\527\EC330\HW4\Grading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EC527\EC330\HW4\Grading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
   <si>
     <t>AdinHorovitz</t>
   </si>
@@ -435,6 +435,15 @@
   </si>
   <si>
     <t>need better algorithm description</t>
+  </si>
+  <si>
+    <t>incorrect runtime</t>
+  </si>
+  <si>
+    <t>needs to be faster</t>
+  </si>
+  <si>
+    <t>needs to be faster and more descriptive algorithm</t>
   </si>
 </sst>
 </file>
@@ -754,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,19 +1463,28 @@
         <v>130</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32,D32,F32)</f>
         <v>0</v>
       </c>
     </row>
@@ -1474,42 +1492,108 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>130</v>
+      </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
       <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B35,D35,F35)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>137</v>
+      </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
       <c r="H37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1519,60 +1603,153 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>130</v>
+      </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>130</v>
+      </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>130</v>
+      </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>130</v>
+      </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="H44">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1582,78 +1759,198 @@
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>137</v>
+      </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>130</v>
+      </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>132</v>
+      </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>130</v>
+      </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>130</v>
+      </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
       <c r="H53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1663,42 +1960,99 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>137</v>
+      </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>137</v>
+      </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
       <c r="H58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1708,6 +2062,15 @@
       <c r="A59" t="s">
         <v>57</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
       <c r="H59">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1717,51 +2080,135 @@
       <c r="A60" t="s">
         <v>58</v>
       </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
       <c r="H60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B60,D60,F60)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>130</v>
+      </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>130</v>
+      </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>130</v>
+      </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
       <c r="H65">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1771,24 +2218,60 @@
       <c r="A66" t="s">
         <v>64</v>
       </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
       <c r="H66">
-        <f t="shared" ref="H66:H121" si="1">SUM(B66,D66,F66)</f>
-        <v>0</v>
+        <f>SUM(B66,D66,F66)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>130</v>
+      </c>
       <c r="H67">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H66:H121" si="1">SUM(B67,D67,F67)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
       <c r="H68">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1798,6 +2281,15 @@
       <c r="A69" t="s">
         <v>67</v>
       </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
       <c r="H69">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1807,6 +2299,15 @@
       <c r="A70" t="s">
         <v>68</v>
       </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="H70">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1816,6 +2317,15 @@
       <c r="A71" t="s">
         <v>69</v>
       </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
       <c r="H71">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1825,60 +2335,147 @@
       <c r="A72" t="s">
         <v>70</v>
       </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>130</v>
+      </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>130</v>
+      </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>130</v>
+      </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
       <c r="H78">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1888,6 +2485,15 @@
       <c r="A79" t="s">
         <v>77</v>
       </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
       <c r="H79">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1897,78 +2503,204 @@
       <c r="A80" t="s">
         <v>78</v>
       </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>130</v>
+      </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
+        <v>130</v>
+      </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>130</v>
+      </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>138</v>
+      </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>139</v>
+      </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>138</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>130</v>
+      </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
       <c r="H88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1978,42 +2710,108 @@
       <c r="A89" t="s">
         <v>87</v>
       </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>138</v>
+      </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>138</v>
+      </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>130</v>
+      </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
       <c r="H93">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2023,9 +2821,24 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>138</v>
+      </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">

--- a/EC330/HW4/Grading/grades.xlsx
+++ b/EC330/HW4/Grading/grades.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EC527\EC330\HW4\Grading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\Desktop\527\EC330\HW4\Grading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="25200" windowHeight="11070"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="25200" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="144">
   <si>
     <t>AdinHorovitz</t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>needs to be faster and more descriptive algorithm</t>
+  </si>
+  <si>
+    <t>Need to describe algorithm. Also should be more efficient.</t>
+  </si>
+  <si>
+    <t>could be faster and poorly described algorithm</t>
+  </si>
+  <si>
+    <t>poorly described algorith, needs to be faster</t>
+  </si>
+  <si>
+    <t>runtime incorrect, more description needed</t>
   </si>
 </sst>
 </file>
@@ -763,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2267,7 @@
         <v>130</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H66:H121" si="1">SUM(B67,D67,F67)</f>
+        <f t="shared" ref="H67:H121" si="1">SUM(B67,D67,F67)</f>
         <v>20</v>
       </c>
     </row>
@@ -2845,15 +2857,39 @@
       <c r="A95" t="s">
         <v>93</v>
       </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+      <c r="G95" t="s">
+        <v>130</v>
+      </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
       <c r="H96">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2863,33 +2899,81 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>130</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>130</v>
+      </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>132</v>
+      </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
       <c r="H100">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2899,33 +2983,81 @@
       <c r="A101" t="s">
         <v>99</v>
       </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>140</v>
+      </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>7</v>
+      </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
       <c r="H104">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2935,149 +3067,404 @@
       <c r="A105" t="s">
         <v>103</v>
       </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>130</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>137</v>
+      </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>7</v>
+      </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>130</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>140</v>
+      </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108">
+        <v>7</v>
+      </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109" t="s">
+        <v>140</v>
+      </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>130</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>130</v>
+      </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
+      <c r="B111">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>130</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>130</v>
+      </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>130</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>140</v>
+      </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>142</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>143</v>
+      </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>130</v>
+      </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>130</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>140</v>
+      </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>138</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>130</v>
+      </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>130</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>130</v>
+      </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>138</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
+        <v>137</v>
+      </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>130</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+      <c r="G120" t="s">
+        <v>130</v>
+      </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
